--- a/exam/data/Exam.xlsx
+++ b/exam/data/Exam.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rnadorp/Documents/Prive/D3/exam/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0337433D-2D57-4D43-BC9E-FDF2243A0D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960220D9-09C1-E445-88A7-E2D7BDB81F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{A8E0DE9A-6FB7-7148-975A-8F4C9C3DA029}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{A8E0DE9A-6FB7-7148-975A-8F4C9C3DA029}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions" sheetId="4" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="688">
   <si>
     <t>Lat</t>
   </si>
@@ -1576,6 +1576,560 @@
   </si>
   <si>
     <t>In the BASE vs ACID model for Transaction Processing, E is best described with which of these statements?</t>
+  </si>
+  <si>
+    <t>What is the primary driver for data management?</t>
+  </si>
+  <si>
+    <t>Get value from data assets</t>
+  </si>
+  <si>
+    <t>Increase data qualityy</t>
+  </si>
+  <si>
+    <t>Increase productivity</t>
+  </si>
+  <si>
+    <t>Treat data as a first class citizen</t>
+  </si>
+  <si>
+    <t>§1.1</t>
+  </si>
+  <si>
+    <t>Data management principles apply to data captured electronically as well as on paper</t>
+  </si>
+  <si>
+    <t>§2.1</t>
+  </si>
+  <si>
+    <t>Which of the following is not a data management principle?</t>
+  </si>
+  <si>
+    <t>Data is an asset with unique properties</t>
+  </si>
+  <si>
+    <t>The value of data can and should be expressed in economic therms</t>
+  </si>
+  <si>
+    <t>Managing data means managing the quality of data</t>
+  </si>
+  <si>
+    <t>It takes planning to manage data</t>
+  </si>
+  <si>
+    <t>It takes masterdata to manage data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">§2.4. Should be "meta data" </t>
+  </si>
+  <si>
+    <t>Data management is cross functional; it requires a range of skills and experties</t>
+  </si>
+  <si>
+    <t>Data management requires an enterprise perspective</t>
+  </si>
+  <si>
+    <t>Data management must account for a range of perspectives</t>
+  </si>
+  <si>
+    <t>Data management is lifecycle management and ifferent types of data have different lifecycle characteristcs</t>
+  </si>
+  <si>
+    <t>Data management requirements must drive IT decisions</t>
+  </si>
+  <si>
+    <t>Data management  requires operational commitment</t>
+  </si>
+  <si>
+    <t>§2.4. Should be "management commitment"</t>
+  </si>
+  <si>
+    <t>Which of the following is not a property of data?</t>
+  </si>
+  <si>
+    <t>Intangible</t>
+  </si>
+  <si>
+    <t>Easy to copy</t>
+  </si>
+  <si>
+    <t>Difficult to reproduce if lost</t>
+  </si>
+  <si>
+    <t>Consumed when used</t>
+  </si>
+  <si>
+    <t>§2.4 Should be "not consumed.."</t>
+  </si>
+  <si>
+    <t>Data valuation is different for each organization</t>
+  </si>
+  <si>
+    <t>§2.5.2</t>
+  </si>
+  <si>
+    <t>What makes data valuation difficult?</t>
+  </si>
+  <si>
+    <t>Data cannot be sold</t>
+  </si>
+  <si>
+    <t>Quality of data is often too low</t>
+  </si>
+  <si>
+    <t>Data is intangible</t>
+  </si>
+  <si>
+    <t>No standard way to associate financial value with data</t>
+  </si>
+  <si>
+    <t>Value of data is contextual and temporal</t>
+  </si>
+  <si>
+    <t>What is not a benefit of higher data quality</t>
+  </si>
+  <si>
+    <t>Improved customer experience</t>
+  </si>
+  <si>
+    <t>Reduced risk</t>
+  </si>
+  <si>
+    <t>Higher dashboard adoption and use</t>
+  </si>
+  <si>
+    <t>Increased revenu</t>
+  </si>
+  <si>
+    <t>Greater competitive advantage</t>
+  </si>
+  <si>
+    <t>§2.5.3</t>
+  </si>
+  <si>
+    <t>Which of the following is not true about data management?</t>
+  </si>
+  <si>
+    <t>It requires systems thinking</t>
+  </si>
+  <si>
+    <t>It is cross functional</t>
+  </si>
+  <si>
+    <t>It requires strategic thinking</t>
+  </si>
+  <si>
+    <t>It requires design skills</t>
+  </si>
+  <si>
+    <t>It is best organized within verticals (sales, marketing, finance)</t>
+  </si>
+  <si>
+    <t>§2.5</t>
+  </si>
+  <si>
+    <t>The data life cycle is similar to ..</t>
+  </si>
+  <si>
+    <t>Product lifecycle</t>
+  </si>
+  <si>
+    <t>System development lifecycle</t>
+  </si>
+  <si>
+    <t>§2.5.9</t>
+  </si>
+  <si>
+    <t>What are the most important data lifecycle activities?</t>
+  </si>
+  <si>
+    <t>Plan, Enhance</t>
+  </si>
+  <si>
+    <t>Create, Use</t>
+  </si>
+  <si>
+    <t>Enhance, Dispose</t>
+  </si>
+  <si>
+    <t>Store, Design</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>What is an information gap</t>
+  </si>
+  <si>
+    <t>The gap between data and information</t>
+  </si>
+  <si>
+    <t>the difference in power between someone who has information and someone who doesn't</t>
+  </si>
+  <si>
+    <t>The competitive advantage a company has due to its expertise</t>
+  </si>
+  <si>
+    <t>The difference between what someone knows and what he needs to know to make an effective decision.</t>
+  </si>
+  <si>
+    <t>§2.5.11</t>
+  </si>
+  <si>
+    <t>Management data is the same as managing technology</t>
+  </si>
+  <si>
+    <t>§2.5.12</t>
+  </si>
+  <si>
+    <t>What is a data strategy?</t>
+  </si>
+  <si>
+    <t>A chess game</t>
+  </si>
+  <si>
+    <t>A set of steps related to business plans and explaining the use of information to achieve competitive advantage</t>
+  </si>
+  <si>
+    <t>A set of steps to transform data into information</t>
+  </si>
+  <si>
+    <t>What is a data management strategy</t>
+  </si>
+  <si>
+    <t>The same as a data strategy</t>
+  </si>
+  <si>
+    <t>A plan to maintain and improve data quality</t>
+  </si>
+  <si>
+    <t>A set of instructions to update data in systems</t>
+  </si>
+  <si>
+    <t>§2.6</t>
+  </si>
+  <si>
+    <t>Deliverables for a data management strategy do not include…</t>
+  </si>
+  <si>
+    <t>A data management charter</t>
+  </si>
+  <si>
+    <t>A business case</t>
+  </si>
+  <si>
+    <t>Scope statement</t>
+  </si>
+  <si>
+    <t>Roadmap</t>
+  </si>
+  <si>
+    <t>Which one of the following is not considered a data management framework?</t>
+  </si>
+  <si>
+    <t>Strategic Alignment Model</t>
+  </si>
+  <si>
+    <t>Amsterdam Information Model</t>
+  </si>
+  <si>
+    <t>TOGAF</t>
+  </si>
+  <si>
+    <t>§3</t>
+  </si>
+  <si>
+    <t>1. DAMA Wheel, 2. Environmental Factors Hexagon, 3. Knowledge Area Context Diagram</t>
+  </si>
+  <si>
+    <t>1. Data Quality, 2. Data Governance, 3. Metadata</t>
+  </si>
+  <si>
+    <t>1. People, 2. Process, 3. Technology</t>
+  </si>
+  <si>
+    <t>What are the three main components of DAMA's Data Management Framework</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Goals, 2. Principles, 3. Guidelines </t>
+  </si>
+  <si>
+    <t>§3.3</t>
+  </si>
+  <si>
+    <t>What sections does the Knowledge Area Context Diagram have?</t>
+  </si>
+  <si>
+    <t>Definition, Goals, Activities, Activity Inputs, Deliverables, Suppliers, Participants, Consumers, Tools, Techniques and Metrics</t>
+  </si>
+  <si>
+    <t>Name, Definition, Goals, Domain, Owner, Deliverables</t>
+  </si>
+  <si>
+    <t>Name, Purpose, Maturity, Domain, Deliverables</t>
+  </si>
+  <si>
+    <t>What is the DMBOK Pyramid</t>
+  </si>
+  <si>
+    <t>It is a triangular visualisation showing dependencies between knowledge areas</t>
+  </si>
+  <si>
+    <t>A roadmap for an organisation to implement data management</t>
+  </si>
+  <si>
+    <t>A visualisation showing the importance of data governance.</t>
+  </si>
+  <si>
+    <t>A map that places data security at the centre of data management</t>
+  </si>
+  <si>
+    <t>Data quality, data governance, master data, business analytics</t>
+  </si>
+  <si>
+    <t>Data governance, data quality, applications, master data, business analytics</t>
+  </si>
+  <si>
+    <t>Business analytics, data design, data governance</t>
+  </si>
+  <si>
+    <t>What is the correct order of knowledge areas in the Functional Area Dependencies diagram in bottom to top order.</t>
+  </si>
+  <si>
+    <t>§3.4</t>
+  </si>
+  <si>
+    <t>§3.5</t>
+  </si>
+  <si>
+    <t>Risk Management, Architecture, Culture Change</t>
+  </si>
+  <si>
+    <t>What are the main sections in the DM Function Framework, top to bottom</t>
+  </si>
+  <si>
+    <t>Data Governance, Life Cycle Management, Foundational Activities</t>
+  </si>
+  <si>
+    <t>Life Cycle Management, Data Governance, Data Quality Management</t>
+  </si>
+  <si>
+    <t>Plan &amp; Design, Enable &amp; Maintain, Use &amp; Enhance</t>
+  </si>
+  <si>
+    <t>What are ethics?</t>
+  </si>
+  <si>
+    <t>Principles of behavior based on ideas of right and wrong</t>
+  </si>
+  <si>
+    <t>Laws that describe how to behave</t>
+  </si>
+  <si>
+    <t>Rules for correct communication between humans</t>
+  </si>
+  <si>
+    <t>§1</t>
+  </si>
+  <si>
+    <t>What are the core concepts that data handling ethics focus on?</t>
+  </si>
+  <si>
+    <t>Economic value of data and misuse</t>
+  </si>
+  <si>
+    <t>Impact on people, Potential for misues, Economic value of data</t>
+  </si>
+  <si>
+    <t>Which of the following describes ethics best?</t>
+  </si>
+  <si>
+    <t>Doing things in an efficient way</t>
+  </si>
+  <si>
+    <t>Doing it right when people are looking</t>
+  </si>
+  <si>
+    <t>Doing it right when no one is looking</t>
+  </si>
+  <si>
+    <t>Doing nothing when seeing wrong behavior</t>
+  </si>
+  <si>
+    <t>§2</t>
+  </si>
+  <si>
+    <t>Company reputation, Sustainability, Competitiveness</t>
+  </si>
+  <si>
+    <t>Respect for Persons, Beneficence, Justice</t>
+  </si>
+  <si>
+    <t>Privacy, Dignity, Justice</t>
+  </si>
+  <si>
+    <t>Security, Compliance, Privacy</t>
+  </si>
+  <si>
+    <t>What does the principle "Beneficence" mean?</t>
+  </si>
+  <si>
+    <t>Maximise value of data</t>
+  </si>
+  <si>
+    <t>Minimize harm</t>
+  </si>
+  <si>
+    <t>Do good</t>
+  </si>
+  <si>
+    <t>What are the three ethical principles for data described as the Belmont Principles?</t>
+  </si>
+  <si>
+    <t>§3.1</t>
+  </si>
+  <si>
+    <t>Which of the following is not a GDPR principle?</t>
+  </si>
+  <si>
+    <t>Fairness, Lawfulness, Transparency</t>
+  </si>
+  <si>
+    <t>Purpose Limitation</t>
+  </si>
+  <si>
+    <t>Availability</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Accountability</t>
+  </si>
+  <si>
+    <t>§3.2</t>
+  </si>
+  <si>
+    <t>What does the GDPR principle "Accountability" mean?</t>
+  </si>
+  <si>
+    <t>Data stewards are responsible to ensure accuracy of privacy information</t>
+  </si>
+  <si>
+    <t>Data processors are accountable  for all GDPR principles</t>
+  </si>
+  <si>
+    <t>Data controllers are responsible and required to be able to demonstrate compliance with all principles</t>
+  </si>
+  <si>
+    <t>The CEO of an organisation is accountable for GDPR compliance</t>
+  </si>
+  <si>
+    <t>What does "bias" mean</t>
+  </si>
+  <si>
+    <t>An inclination of outlook</t>
+  </si>
+  <si>
+    <t>Systematic errors in sampling</t>
+  </si>
+  <si>
+    <t>Misinterpretation of data</t>
+  </si>
+  <si>
+    <t>Opinionated interpretation of data</t>
+  </si>
+  <si>
+    <t>§3.4.4</t>
+  </si>
+  <si>
+    <t>What are the ethical risks that intersect with fundamental problems in data management?</t>
+  </si>
+  <si>
+    <t>Limited knowledge of data lineage, 
+Poor data quality,
+Unreliable metadata, No documentation</t>
+  </si>
+  <si>
+    <t>Poor data quality, Lack of ownership, Organisation culture</t>
+  </si>
+  <si>
+    <t>Obfuscation, Integration, Classification, Operation</t>
+  </si>
+  <si>
+    <t>Data aggregation, data marking, data masking</t>
+  </si>
+  <si>
+    <t>What is the difference between obfuscation and masking?</t>
+  </si>
+  <si>
+    <t>They are the same</t>
+  </si>
+  <si>
+    <t>Obfuscation is irreversable, masking is not</t>
+  </si>
+  <si>
+    <t>Masking is irreversable, obfuscation is not</t>
+  </si>
+  <si>
+    <t>§3.4.6</t>
+  </si>
+  <si>
+    <t>Is data aggregation a method for data obfuscation?</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Establishing an ethical data culture consists of</t>
+  </si>
+  <si>
+    <t>Review current state of data handling practices</t>
+  </si>
+  <si>
+    <t>Identify principles, practices and risk factors</t>
+  </si>
+  <si>
+    <t>Create an ethical data handling strategy</t>
+  </si>
+  <si>
+    <t>Adopt a socially responsible ethical risk model</t>
+  </si>
+  <si>
+    <t>All of the above</t>
+  </si>
+  <si>
+    <t>What is the correct order for data ethics</t>
+  </si>
+  <si>
+    <t>Principle, Risk, Control, Practice</t>
+  </si>
+  <si>
+    <t>Principle, Practice, Control, Risk</t>
+  </si>
+  <si>
+    <t>Principle, Risk, Practice, Controle</t>
+  </si>
+  <si>
+    <t>Requirement, Principle, Control, Practice</t>
+  </si>
+  <si>
+    <t>What is the definition of "data governance"?</t>
+  </si>
+  <si>
+    <t>The exercise of authority and control over t he management of data assets</t>
+  </si>
+  <si>
+    <t>The execution of data quality improvement processes</t>
+  </si>
+  <si>
+    <t>Overview of data management activities</t>
+  </si>
+  <si>
+    <t>The implementation of data management in an organisation</t>
   </si>
 </sst>
 </file>
@@ -1705,62 +2259,9 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="27">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="21" formatCode="dd/mmm"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="21" formatCode="dd/mmm"/>
@@ -1845,6 +2346,62 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="dd/mmm"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1859,44 +2416,48 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1DE37D4B-8CD8-7C4F-AFCE-404193003CE5}" name="TripDetails" displayName="TripDetails" ref="A1:P81" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="A1:P81" xr:uid="{1DE37D4B-8CD8-7C4F-AFCE-404193003CE5}">
-    <filterColumn colId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1DE37D4B-8CD8-7C4F-AFCE-404193003CE5}" name="TripDetails" displayName="TripDetails" ref="A1:Q117" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+  <autoFilter ref="A1:Q117" xr:uid="{1DE37D4B-8CD8-7C4F-AFCE-404193003CE5}">
+    <filterColumn colId="3">
       <filters>
-        <filter val="?"/>
+        <filter val="13"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{B4A3FE55-D477-F74E-AE9C-B4AF3B806DCA}" name="Id" dataDxfId="15">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A82:Q117">
+    <sortCondition ref="E1:E117"/>
+  </sortState>
+  <tableColumns count="17">
+    <tableColumn id="1" xr3:uid="{B4A3FE55-D477-F74E-AE9C-B4AF3B806DCA}" name="Id" dataDxfId="24">
       <calculatedColumnFormula>ROW()-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16389" xr3:uid="{DC094475-0CA7-4843-8B1B-F7C1BF7BD7A3}" name="Include" dataDxfId="14"/>
-    <tableColumn id="16395" xr3:uid="{418F7324-2225-0843-940D-D63583210F0A}" name="Topic" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{D248CC5B-33B8-3F4A-ADBA-DF4D662E8A23}" name="Exam" dataDxfId="12">
+    <tableColumn id="16389" xr3:uid="{DC094475-0CA7-4843-8B1B-F7C1BF7BD7A3}" name="Include" dataDxfId="23"/>
+    <tableColumn id="16395" xr3:uid="{418F7324-2225-0843-940D-D63583210F0A}" name="Topic" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{D248CC5B-33B8-3F4A-ADBA-DF4D662E8A23}" name="Exam" dataDxfId="21">
       <calculatedColumnFormula>TripDetails[[#This Row],[SetOrg]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{129B2AEA-2222-DD46-8174-A379FEC5F74F}" name="Number" dataDxfId="11">
+    <tableColumn id="2" xr3:uid="{129B2AEA-2222-DD46-8174-A379FEC5F74F}" name="Number" dataDxfId="20">
       <calculatedColumnFormula>TripDetails[[#This Row],[NumberOrg]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{492D069B-60BC-9047-A242-726CC0B4B3BB}" name="Question" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{2007CB15-D3F7-9C41-8091-AE455DA8F9BF}" name="A" dataDxfId="9"/>
-    <tableColumn id="16386" xr3:uid="{65B759A7-328A-2E43-B4F8-143CD0D1767F}" name="B" dataDxfId="8"/>
-    <tableColumn id="16387" xr3:uid="{BB725A1F-CFA4-104B-BFFC-E13620D92311}" name="C" dataDxfId="7"/>
-    <tableColumn id="16390" xr3:uid="{D099340F-AF28-DB48-99AA-38FE25D0411B}" name="D" dataDxfId="6"/>
-    <tableColumn id="16391" xr3:uid="{2A250400-E35F-D54B-8497-BD7020847500}" name="E" dataDxfId="5"/>
-    <tableColumn id="16392" xr3:uid="{29345B29-5DFD-5741-8587-74E7D1848AEA}" name="F" dataDxfId="4"/>
-    <tableColumn id="16393" xr3:uid="{74176E7B-3C30-8A41-A142-C961AB61BCCC}" name="Answer" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{0882BFCA-C2F3-8544-AC90-964C2F06BE42}" name="Explanation" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{DA46E514-22FA-6A4D-9398-36EB7D4C86DC}" name="NumberOrg" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{D21FC327-D1F5-914F-8FB6-68518F1287B0}" name="SetOrg" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{492D069B-60BC-9047-A242-726CC0B4B3BB}" name="Question" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{2007CB15-D3F7-9C41-8091-AE455DA8F9BF}" name="A" dataDxfId="18"/>
+    <tableColumn id="16386" xr3:uid="{65B759A7-328A-2E43-B4F8-143CD0D1767F}" name="B" dataDxfId="17"/>
+    <tableColumn id="16387" xr3:uid="{BB725A1F-CFA4-104B-BFFC-E13620D92311}" name="C" dataDxfId="16"/>
+    <tableColumn id="16390" xr3:uid="{D099340F-AF28-DB48-99AA-38FE25D0411B}" name="D" dataDxfId="15"/>
+    <tableColumn id="16391" xr3:uid="{2A250400-E35F-D54B-8497-BD7020847500}" name="E" dataDxfId="14"/>
+    <tableColumn id="16392" xr3:uid="{29345B29-5DFD-5741-8587-74E7D1848AEA}" name="F" dataDxfId="13"/>
+    <tableColumn id="16393" xr3:uid="{74176E7B-3C30-8A41-A142-C961AB61BCCC}" name="Answer" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{C4F56004-370E-0347-8883-0BA433C07A30}" name="Chapter" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{0882BFCA-C2F3-8544-AC90-964C2F06BE42}" name="Explanation" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{DA46E514-22FA-6A4D-9398-36EB7D4C86DC}" name="NumberOrg" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{D21FC327-D1F5-914F-8FB6-68518F1287B0}" name="SetOrg" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9CB0B826-4738-1343-831D-1DFC83FFEB94}" name="Chapters" displayName="Chapters" ref="A1:D18" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9CB0B826-4738-1343-831D-1DFC83FFEB94}" name="Chapters" displayName="Chapters" ref="A1:D18" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6">
   <tableColumns count="4">
     <tableColumn id="5" xr3:uid="{EBDE8B2C-5EF0-5742-B8F3-91610243E928}" name="Chapter"/>
     <tableColumn id="1" xr3:uid="{6EED31BB-1EC6-4049-A918-687F9D4BC4EB}" name="Include"/>
@@ -1908,15 +2469,15 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E3680F9E-7E37-DC47-AA1A-E5551882E046}" name="Sections" displayName="Sections" ref="A1:F4" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21" tableBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E3680F9E-7E37-DC47-AA1A-E5551882E046}" name="Sections" displayName="Sections" ref="A1:F4" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
   <tableColumns count="6">
-    <tableColumn id="25" xr3:uid="{9E2D1A41-ACB7-0E40-BDCA-762595C9260F}" name="Id" dataDxfId="19">
+    <tableColumn id="25" xr3:uid="{9E2D1A41-ACB7-0E40-BDCA-762595C9260F}" name="Id" dataDxfId="2">
       <calculatedColumnFormula>ROW()-1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="1" xr3:uid="{C68B00FD-71F5-D140-BEBA-B3C54835856D}" name="Include"/>
     <tableColumn id="5" xr3:uid="{9DCB09A7-41AD-AB41-B0CC-D99AB0DFC83A}" name="Chapter"/>
     <tableColumn id="2" xr3:uid="{34FE805E-3186-A846-A197-FA0665A4C7DC}" name="Name"/>
-    <tableColumn id="3" xr3:uid="{AE03E29B-7E5F-C24B-AE80-3B3DC7836BF2}" name="Section" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{AE03E29B-7E5F-C24B-AE80-3B3DC7836BF2}" name="Section" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{4C024CA5-4D14-1642-9883-DBB748D306E1}" name="Summary"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2252,13 +2813,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFBE4C50-ED35-394B-ADA9-9E7CA89A82CD}">
-  <dimension ref="A1:S81"/>
+  <dimension ref="A1:T117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E110" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomRight" activeCell="F116" sqref="F116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2270,15 +2831,15 @@
     <col min="5" max="5" width="10.33203125" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="43.83203125" style="7" customWidth="1"/>
     <col min="7" max="12" width="16" style="7"/>
-    <col min="13" max="13" width="16" style="11"/>
-    <col min="14" max="14" width="16" style="7"/>
-    <col min="15" max="16" width="16" style="11"/>
-    <col min="17" max="18" width="16" style="7"/>
-    <col min="19" max="19" width="88" style="7" customWidth="1"/>
-    <col min="20" max="16384" width="16" style="7"/>
+    <col min="13" max="14" width="16" style="11"/>
+    <col min="15" max="15" width="16" style="7"/>
+    <col min="16" max="17" width="16" style="11"/>
+    <col min="18" max="19" width="16" style="7"/>
+    <col min="20" max="20" width="88" style="7" customWidth="1"/>
+    <col min="21" max="16384" width="16" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>11</v>
       </c>
@@ -2318,17 +2879,20 @@
       <c r="M1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="Q1" s="11" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <f t="shared" ref="A2" si="0">ROW()-1</f>
         <v>1</v>
@@ -2368,14 +2932,14 @@
       <c r="M2" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="11">
-        <v>1</v>
-      </c>
       <c r="P2" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q2" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <f t="shared" ref="A3:A16" si="1">ROW()-1</f>
         <v>2</v>
@@ -2415,14 +2979,14 @@
       <c r="M3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="11">
+      <c r="P3" s="11">
         <v>2</v>
       </c>
-      <c r="P3" s="11">
+      <c r="Q3" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -2462,14 +3026,14 @@
       <c r="M4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="O4" s="11">
+      <c r="P4" s="11">
         <v>3</v>
       </c>
-      <c r="P4" s="11">
+      <c r="Q4" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -2509,14 +3073,14 @@
       <c r="M5" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="O5" s="11">
+      <c r="P5" s="11">
         <v>4</v>
       </c>
-      <c r="P5" s="11">
+      <c r="Q5" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <f>ROW()-1</f>
         <v>5</v>
@@ -2556,14 +3120,14 @@
       <c r="M6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="O6" s="11">
+      <c r="P6" s="11">
         <v>5</v>
       </c>
-      <c r="P6" s="11">
+      <c r="Q6" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -2603,14 +3167,14 @@
       <c r="M7" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="O7" s="11">
+      <c r="P7" s="11">
         <v>6</v>
       </c>
-      <c r="P7" s="11">
+      <c r="Q7" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -2650,14 +3214,14 @@
       <c r="M8" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="O8" s="11">
+      <c r="P8" s="11">
         <v>1</v>
       </c>
-      <c r="P8" s="11">
+      <c r="Q8" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -2697,14 +3261,14 @@
       <c r="M9" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="O9" s="11">
-        <v>2</v>
-      </c>
       <c r="P9" s="11">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="85" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q9" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -2744,14 +3308,14 @@
       <c r="M10" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="O10" s="11">
+      <c r="P10" s="11">
         <v>3</v>
       </c>
-      <c r="P10" s="11">
+      <c r="Q10" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -2791,14 +3355,14 @@
       <c r="M11" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O11" s="11">
+      <c r="P11" s="11">
         <v>4</v>
       </c>
-      <c r="P11" s="11">
+      <c r="Q11" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -2838,14 +3402,14 @@
       <c r="M12" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="O12" s="11">
+      <c r="P12" s="11">
         <v>5</v>
       </c>
-      <c r="P12" s="11">
+      <c r="Q12" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -2885,14 +3449,14 @@
       <c r="M13" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="O13" s="11">
+      <c r="P13" s="11">
         <v>6</v>
       </c>
-      <c r="P13" s="11">
+      <c r="Q13" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -2932,14 +3496,14 @@
       <c r="M14" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O14" s="11">
+      <c r="P14" s="11">
         <v>7</v>
       </c>
-      <c r="P14" s="11">
+      <c r="Q14" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -2979,14 +3543,14 @@
       <c r="M15" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="O15" s="11">
+      <c r="P15" s="11">
         <v>8</v>
       </c>
-      <c r="P15" s="11">
+      <c r="Q15" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -3026,14 +3590,14 @@
       <c r="M16" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="O16" s="11">
+      <c r="P16" s="11">
         <v>9</v>
       </c>
-      <c r="P16" s="11">
+      <c r="Q16" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <f t="shared" ref="A17:A29" si="2">ROW()-1</f>
         <v>16</v>
@@ -3073,14 +3637,14 @@
       <c r="M17" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="O17" s="11">
+      <c r="P17" s="11">
         <v>1</v>
       </c>
-      <c r="P17" s="11">
+      <c r="Q17" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -3120,14 +3684,14 @@
       <c r="M18" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="O18" s="11">
+      <c r="P18" s="11">
         <v>2</v>
       </c>
-      <c r="P18" s="11">
+      <c r="Q18" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="102" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -3167,14 +3731,14 @@
       <c r="M19" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="O19" s="11">
-        <v>3</v>
-      </c>
       <c r="P19" s="11">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" ht="85" x14ac:dyDescent="0.2">
+      <c r="Q19" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -3214,14 +3778,14 @@
       <c r="M20" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="O20" s="11">
-        <v>3</v>
-      </c>
       <c r="P20" s="11">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" ht="102" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q20" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -3261,14 +3825,14 @@
       <c r="M21" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="O21" s="11">
+      <c r="P21" s="11">
         <v>1</v>
       </c>
-      <c r="P21" s="11">
+      <c r="Q21" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -3308,14 +3872,14 @@
       <c r="M22" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O22" s="11">
+      <c r="P22" s="11">
         <v>2</v>
       </c>
-      <c r="P22" s="11">
+      <c r="Q22" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="153" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -3355,14 +3919,14 @@
       <c r="M23" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="O23" s="11">
+      <c r="P23" s="11">
         <v>3</v>
       </c>
-      <c r="P23" s="11">
+      <c r="Q23" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="85" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -3402,14 +3966,14 @@
       <c r="M24" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="O24" s="11">
-        <v>4</v>
-      </c>
       <c r="P24" s="11">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" ht="68" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q24" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -3449,14 +4013,14 @@
       <c r="M25" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="O25" s="11">
+      <c r="P25" s="11">
         <v>5</v>
       </c>
-      <c r="P25" s="11">
+      <c r="Q25" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <f t="shared" si="2"/>
         <v>25</v>
@@ -3496,14 +4060,14 @@
       <c r="M26" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="O26" s="11">
+      <c r="P26" s="11">
         <v>6</v>
       </c>
-      <c r="P26" s="11">
+      <c r="Q26" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <f t="shared" si="2"/>
         <v>26</v>
@@ -3543,14 +4107,14 @@
       <c r="M27" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="O27" s="11">
+      <c r="P27" s="11">
         <v>7</v>
       </c>
-      <c r="P27" s="11">
+      <c r="Q27" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <f t="shared" si="2"/>
         <v>27</v>
@@ -3590,14 +4154,14 @@
       <c r="M28" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O28" s="11">
+      <c r="P28" s="11">
         <v>8</v>
       </c>
-      <c r="P28" s="11">
+      <c r="Q28" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <f t="shared" si="2"/>
         <v>28</v>
@@ -3637,16 +4201,16 @@
       <c r="M29" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="O29" s="11">
+      <c r="P29" s="11">
         <v>9</v>
       </c>
-      <c r="P29" s="11">
+      <c r="Q29" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
-        <f>ROW()-1</f>
+        <f t="shared" ref="A30:A61" si="3">ROW()-1</f>
         <v>29</v>
       </c>
       <c r="B30" s="10" t="s">
@@ -3684,16 +4248,16 @@
       <c r="M30" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="O30" s="11">
+      <c r="P30" s="11">
         <v>1</v>
       </c>
-      <c r="P30" s="11">
+      <c r="Q30" s="11">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="B31" s="10" t="s">
@@ -3722,16 +4286,16 @@
       <c r="M31" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="O31" s="11">
+      <c r="P31" s="11">
         <v>2</v>
       </c>
-      <c r="P31" s="11">
+      <c r="Q31" s="11">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="B32" s="10" t="s">
@@ -3769,16 +4333,16 @@
       <c r="M32" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O32" s="11">
+      <c r="P32" s="11">
         <v>3</v>
       </c>
-      <c r="P32" s="11">
+      <c r="Q32" s="11">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="B33" s="10" t="s">
@@ -3816,16 +4380,16 @@
       <c r="M33" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="O33" s="11">
+      <c r="P33" s="11">
         <v>4</v>
       </c>
-      <c r="P33" s="11">
+      <c r="Q33" s="11">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="B34" s="10" t="s">
@@ -3863,16 +4427,16 @@
       <c r="M34" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="O34" s="11">
-        <v>5</v>
-      </c>
       <c r="P34" s="11">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" ht="136" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q34" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="B35" s="10" t="s">
@@ -3910,16 +4474,16 @@
       <c r="M35" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O35" s="11">
+      <c r="P35" s="11">
         <v>6</v>
       </c>
-      <c r="P35" s="11">
+      <c r="Q35" s="11">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="B36" s="10" t="s">
@@ -3957,16 +4521,16 @@
       <c r="M36" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="O36" s="11">
+      <c r="P36" s="11">
         <v>1</v>
       </c>
-      <c r="P36" s="11">
+      <c r="Q36" s="11">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="B37" s="10" t="s">
@@ -4004,16 +4568,16 @@
       <c r="M37" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O37" s="11">
+      <c r="P37" s="11">
         <v>2</v>
       </c>
-      <c r="P37" s="11">
+      <c r="Q37" s="11">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="B38" s="10" t="s">
@@ -4051,16 +4615,16 @@
       <c r="M38" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="O38" s="11">
+      <c r="P38" s="11">
         <v>3</v>
       </c>
-      <c r="P38" s="11">
+      <c r="Q38" s="11">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="B39" s="10" t="s">
@@ -4098,16 +4662,16 @@
       <c r="M39" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="O39" s="11">
+      <c r="P39" s="11">
         <v>4</v>
       </c>
-      <c r="P39" s="11">
+      <c r="Q39" s="11">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="B40" s="10" t="s">
@@ -4145,16 +4709,16 @@
       <c r="M40" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="O40" s="11">
+      <c r="P40" s="11">
         <v>5</v>
       </c>
-      <c r="P40" s="11">
+      <c r="Q40" s="11">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="B41" s="10" t="s">
@@ -4192,16 +4756,16 @@
       <c r="M41" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="O41" s="11">
-        <v>6</v>
-      </c>
       <c r="P41" s="11">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q41" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="B42" s="10" t="s">
@@ -4230,16 +4794,16 @@
       <c r="M42" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="O42" s="11">
+      <c r="P42" s="11">
         <v>7</v>
       </c>
-      <c r="P42" s="11">
+      <c r="Q42" s="11">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="B43" s="10" t="s">
@@ -4277,19 +4841,19 @@
       <c r="M43" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="O43" s="11">
+      <c r="P43" s="11">
         <v>8</v>
       </c>
-      <c r="P43" s="11">
+      <c r="Q43" s="11">
         <v>6</v>
       </c>
-      <c r="S43" s="7" t="s">
+      <c r="T43" s="7" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="B44" s="10" t="s">
@@ -4327,16 +4891,16 @@
       <c r="M44" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="O44" s="11">
+      <c r="P44" s="11">
         <v>9</v>
       </c>
-      <c r="P44" s="11">
+      <c r="Q44" s="11">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="B45" s="10" t="s">
@@ -4368,16 +4932,16 @@
       <c r="M45" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="O45" s="11">
+      <c r="P45" s="11">
         <v>1</v>
       </c>
-      <c r="P45" s="11">
+      <c r="Q45" s="11">
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="B46" s="10" t="s">
@@ -4415,16 +4979,16 @@
       <c r="M46" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="O46" s="11">
+      <c r="P46" s="11">
         <v>2</v>
       </c>
-      <c r="P46" s="11">
+      <c r="Q46" s="11">
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>46</v>
       </c>
       <c r="B47" s="10" t="s">
@@ -4462,16 +5026,16 @@
       <c r="M47" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="O47" s="11">
+      <c r="P47" s="11">
         <v>3</v>
       </c>
-      <c r="P47" s="11">
+      <c r="Q47" s="11">
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>47</v>
       </c>
       <c r="B48" s="10" t="s">
@@ -4509,16 +5073,16 @@
       <c r="M48" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O48" s="11">
+      <c r="P48" s="11">
         <v>4</v>
       </c>
-      <c r="P48" s="11">
+      <c r="Q48" s="11">
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="B49" s="10" t="s">
@@ -4556,16 +5120,16 @@
       <c r="M49" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="O49" s="11">
+      <c r="P49" s="11">
         <v>5</v>
       </c>
-      <c r="P49" s="11">
+      <c r="Q49" s="11">
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>49</v>
       </c>
       <c r="B50" s="10" t="s">
@@ -4603,16 +5167,16 @@
       <c r="M50" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="O50" s="11">
+      <c r="P50" s="11">
         <v>6</v>
       </c>
-      <c r="P50" s="11">
+      <c r="Q50" s="11">
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="B51" s="10" t="s">
@@ -4650,16 +5214,16 @@
       <c r="M51" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="O51" s="11">
-        <v>7</v>
-      </c>
       <c r="P51" s="11">
         <v>7</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" ht="68" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q51" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
       <c r="B52" s="10" t="s">
@@ -4697,16 +5261,16 @@
       <c r="M52" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="O52" s="11">
+      <c r="P52" s="11">
         <v>8</v>
       </c>
-      <c r="P52" s="11">
+      <c r="Q52" s="11">
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>52</v>
       </c>
       <c r="B53" s="10" t="s">
@@ -4744,16 +5308,16 @@
       <c r="M53" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="O53" s="11">
+      <c r="P53" s="11">
         <v>9</v>
       </c>
-      <c r="P53" s="11">
+      <c r="Q53" s="11">
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="153" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>53</v>
       </c>
       <c r="B54" s="10" t="s">
@@ -4791,16 +5355,16 @@
       <c r="M54" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="O54" s="11">
+      <c r="P54" s="11">
         <v>1</v>
       </c>
-      <c r="P54" s="11">
+      <c r="Q54" s="11">
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="221" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" ht="221" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="7">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
       <c r="B55" s="10" t="s">
@@ -4838,16 +5402,16 @@
       <c r="M55" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="O55" s="11">
+      <c r="P55" s="11">
         <v>2</v>
       </c>
-      <c r="P55" s="11">
+      <c r="Q55" s="11">
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="7">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
       <c r="B56" s="10" t="s">
@@ -4885,16 +5449,16 @@
       <c r="M56" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="O56" s="11">
+      <c r="P56" s="11">
         <v>3</v>
       </c>
-      <c r="P56" s="11">
+      <c r="Q56" s="11">
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
       <c r="B57" s="10" t="s">
@@ -4932,16 +5496,16 @@
       <c r="M57" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="O57" s="11">
+      <c r="P57" s="11">
         <v>1</v>
       </c>
-      <c r="P57" s="11">
+      <c r="Q57" s="11">
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="7">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
       <c r="B58" s="10" t="s">
@@ -4979,16 +5543,16 @@
       <c r="M58" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="O58" s="11">
+      <c r="P58" s="11">
         <v>2</v>
       </c>
-      <c r="P58" s="11">
+      <c r="Q58" s="11">
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
       <c r="B59" s="10" t="s">
@@ -5026,16 +5590,16 @@
       <c r="M59" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="O59" s="11">
+      <c r="P59" s="11">
         <v>3</v>
       </c>
-      <c r="P59" s="11">
+      <c r="Q59" s="11">
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="7">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>59</v>
       </c>
       <c r="B60" s="10" t="s">
@@ -5073,16 +5637,16 @@
       <c r="M60" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O60" s="11">
+      <c r="P60" s="11">
         <v>4</v>
       </c>
-      <c r="P60" s="11">
+      <c r="Q60" s="11">
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="7">
-        <f>ROW()-1</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="B61" s="10" t="s">
@@ -5120,16 +5684,16 @@
       <c r="M61" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="O61" s="11">
+      <c r="P61" s="11">
         <v>5</v>
       </c>
-      <c r="P61" s="11">
+      <c r="Q61" s="11">
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="7">
-        <f>ROW()-1</f>
+        <f t="shared" ref="A62:A81" si="4">ROW()-1</f>
         <v>61</v>
       </c>
       <c r="B62" s="10" t="s">
@@ -5167,16 +5731,16 @@
       <c r="M62" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="O62" s="11">
+      <c r="P62" s="11">
         <v>6</v>
       </c>
-      <c r="P62" s="11">
+      <c r="Q62" s="11">
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="7">
-        <f>ROW()-1</f>
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
       <c r="B63" s="10" t="s">
@@ -5214,16 +5778,16 @@
       <c r="M63" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="O63" s="11">
+      <c r="P63" s="11">
         <v>7</v>
       </c>
-      <c r="P63" s="11">
+      <c r="Q63" s="11">
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="7">
-        <f>ROW()-1</f>
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
       <c r="B64" s="10" t="s">
@@ -5261,16 +5825,16 @@
       <c r="M64" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="O64" s="11">
+      <c r="P64" s="11">
         <v>8</v>
       </c>
-      <c r="P64" s="11">
+      <c r="Q64" s="11">
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="153" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:20" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="7">
-        <f>ROW()-1</f>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="B65" s="10" t="s">
@@ -5279,7 +5843,7 @@
       <c r="C65" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="D65" s="12">
+      <c r="D65" s="11">
         <f>TripDetails[[#This Row],[SetOrg]]</f>
         <v>10</v>
       </c>
@@ -5308,16 +5872,16 @@
       <c r="M65" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O65" s="11">
+      <c r="P65" s="11">
         <v>1</v>
       </c>
-      <c r="P65" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" ht="153" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q65" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="7">
-        <f>ROW()-1</f>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="B66" s="10" t="s">
@@ -5326,7 +5890,7 @@
       <c r="C66" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="D66" s="12">
+      <c r="D66" s="11">
         <f>TripDetails[[#This Row],[SetOrg]]</f>
         <v>10</v>
       </c>
@@ -5355,16 +5919,16 @@
       <c r="M66" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="O66" s="11">
+      <c r="P66" s="11">
         <v>2</v>
       </c>
-      <c r="P66" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" ht="204" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q66" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" ht="204" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="7">
-        <f>ROW()-1</f>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="B67" s="10" t="s">
@@ -5373,7 +5937,7 @@
       <c r="C67" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="D67" s="12">
+      <c r="D67" s="11">
         <f>TripDetails[[#This Row],[SetOrg]]</f>
         <v>10</v>
       </c>
@@ -5402,16 +5966,16 @@
       <c r="M67" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O67" s="11">
+      <c r="P67" s="11">
         <v>3</v>
       </c>
-      <c r="P67" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q67" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7">
-        <f>ROW()-1</f>
+        <f t="shared" si="4"/>
         <v>67</v>
       </c>
       <c r="B68" s="10" t="s">
@@ -5420,7 +5984,7 @@
       <c r="C68" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="D68" s="12">
+      <c r="D68" s="11">
         <f>TripDetails[[#This Row],[SetOrg]]</f>
         <v>10</v>
       </c>
@@ -5449,16 +6013,16 @@
       <c r="M68" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="O68" s="11">
+      <c r="P68" s="11">
         <v>4</v>
       </c>
-      <c r="P68" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" ht="68" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q68" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="7">
-        <f>ROW()-1</f>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="B69" s="10" t="s">
@@ -5467,7 +6031,7 @@
       <c r="C69" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="D69" s="12">
+      <c r="D69" s="11">
         <f>TripDetails[[#This Row],[SetOrg]]</f>
         <v>11</v>
       </c>
@@ -5496,16 +6060,16 @@
       <c r="M69" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="O69" s="11">
+      <c r="P69" s="11">
         <v>1</v>
       </c>
-      <c r="P69" s="11">
+      <c r="Q69" s="11">
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:20" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="7">
-        <f>ROW()-1</f>
+        <f t="shared" si="4"/>
         <v>69</v>
       </c>
       <c r="B70" s="10" t="s">
@@ -5514,7 +6078,7 @@
       <c r="C70" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="D70" s="12">
+      <c r="D70" s="11">
         <f>TripDetails[[#This Row],[SetOrg]]</f>
         <v>11</v>
       </c>
@@ -5543,19 +6107,19 @@
       <c r="M70" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="O70" s="11">
+      <c r="P70" s="11">
         <v>2</v>
       </c>
-      <c r="P70" s="11">
+      <c r="Q70" s="11">
         <v>11</v>
       </c>
-      <c r="S70" s="7" t="s">
+      <c r="T70" s="7" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:20" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="7">
-        <f>ROW()-1</f>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
       <c r="B71" s="10" t="s">
@@ -5564,7 +6128,7 @@
       <c r="C71" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="D71" s="12">
+      <c r="D71" s="11">
         <f>TripDetails[[#This Row],[SetOrg]]</f>
         <v>11</v>
       </c>
@@ -5584,16 +6148,16 @@
       <c r="M71" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="O71" s="11">
+      <c r="P71" s="11">
         <v>3</v>
       </c>
-      <c r="P71" s="11">
+      <c r="Q71" s="11">
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:20" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="7">
-        <f>ROW()-1</f>
+        <f t="shared" si="4"/>
         <v>71</v>
       </c>
       <c r="B72" s="10" t="s">
@@ -5602,7 +6166,7 @@
       <c r="C72" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="D72" s="12">
+      <c r="D72" s="11">
         <f>TripDetails[[#This Row],[SetOrg]]</f>
         <v>11</v>
       </c>
@@ -5631,16 +6195,16 @@
       <c r="M72" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O72" s="11">
+      <c r="P72" s="11">
         <v>4</v>
       </c>
-      <c r="P72" s="11">
+      <c r="Q72" s="11">
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:20" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="7">
-        <f>ROW()-1</f>
+        <f t="shared" si="4"/>
         <v>72</v>
       </c>
       <c r="B73" s="10" t="s">
@@ -5649,7 +6213,7 @@
       <c r="C73" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="D73" s="12">
+      <c r="D73" s="11">
         <f>TripDetails[[#This Row],[SetOrg]]</f>
         <v>11</v>
       </c>
@@ -5678,16 +6242,16 @@
       <c r="M73" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="O73" s="11">
+      <c r="P73" s="11">
         <v>5</v>
       </c>
-      <c r="P73" s="11">
+      <c r="Q73" s="11">
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:20" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7">
-        <f>ROW()-1</f>
+        <f t="shared" si="4"/>
         <v>73</v>
       </c>
       <c r="B74" s="10" t="s">
@@ -5696,7 +6260,7 @@
       <c r="C74" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="D74" s="12">
+      <c r="D74" s="11">
         <f>TripDetails[[#This Row],[SetOrg]]</f>
         <v>11</v>
       </c>
@@ -5725,16 +6289,16 @@
       <c r="M74" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="O74" s="11">
+      <c r="P74" s="11">
         <v>6</v>
       </c>
-      <c r="P74" s="11">
+      <c r="Q74" s="11">
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:20" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="7">
-        <f>ROW()-1</f>
+        <f t="shared" si="4"/>
         <v>74</v>
       </c>
       <c r="B75" s="10" t="s">
@@ -5743,7 +6307,7 @@
       <c r="C75" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="D75" s="12">
+      <c r="D75" s="11">
         <f>TripDetails[[#This Row],[SetOrg]]</f>
         <v>11</v>
       </c>
@@ -5772,16 +6336,16 @@
       <c r="M75" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="O75" s="11">
+      <c r="P75" s="11">
         <v>7</v>
       </c>
-      <c r="P75" s="11">
+      <c r="Q75" s="11">
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="204" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:20" ht="204" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="7">
-        <f>ROW()-1</f>
+        <f t="shared" si="4"/>
         <v>75</v>
       </c>
       <c r="B76" s="10" t="s">
@@ -5790,7 +6354,7 @@
       <c r="C76" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="D76" s="12">
+      <c r="D76" s="11">
         <f>TripDetails[[#This Row],[SetOrg]]</f>
         <v>12</v>
       </c>
@@ -5816,16 +6380,16 @@
       <c r="M76" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="O76" s="11">
+      <c r="P76" s="11">
         <v>1</v>
       </c>
-      <c r="P76" s="11">
+      <c r="Q76" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="187" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:20" ht="187" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="7">
-        <f>ROW()-1</f>
+        <f t="shared" si="4"/>
         <v>76</v>
       </c>
       <c r="B77" s="10" t="s">
@@ -5834,7 +6398,7 @@
       <c r="C77" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="D77" s="12">
+      <c r="D77" s="11">
         <f>TripDetails[[#This Row],[SetOrg]]</f>
         <v>12</v>
       </c>
@@ -5860,16 +6424,16 @@
       <c r="M77" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="O77" s="11">
+      <c r="P77" s="11">
         <v>2</v>
       </c>
-      <c r="P77" s="11">
+      <c r="Q77" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:20" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="7">
-        <f>ROW()-1</f>
+        <f t="shared" si="4"/>
         <v>77</v>
       </c>
       <c r="B78" s="10" t="s">
@@ -5878,7 +6442,7 @@
       <c r="C78" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="D78" s="12">
+      <c r="D78" s="11">
         <f>TripDetails[[#This Row],[SetOrg]]</f>
         <v>12</v>
       </c>
@@ -5904,16 +6468,16 @@
       <c r="M78" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="O78" s="11">
+      <c r="P78" s="11">
         <v>3</v>
       </c>
-      <c r="P78" s="11">
+      <c r="Q78" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:20" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="7">
-        <f>ROW()-1</f>
+        <f t="shared" si="4"/>
         <v>78</v>
       </c>
       <c r="B79" s="10" t="s">
@@ -5922,7 +6486,7 @@
       <c r="C79" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="D79" s="12">
+      <c r="D79" s="11">
         <f>TripDetails[[#This Row],[SetOrg]]</f>
         <v>12</v>
       </c>
@@ -5948,16 +6512,16 @@
       <c r="M79" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="O79" s="11">
+      <c r="P79" s="11">
         <v>4</v>
       </c>
-      <c r="P79" s="11">
+      <c r="Q79" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:20" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="7">
-        <f>ROW()-1</f>
+        <f t="shared" si="4"/>
         <v>79</v>
       </c>
       <c r="B80" s="10" t="s">
@@ -5966,7 +6530,7 @@
       <c r="C80" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="D80" s="12">
+      <c r="D80" s="11">
         <f>TripDetails[[#This Row],[SetOrg]]</f>
         <v>12</v>
       </c>
@@ -5992,16 +6556,16 @@
       <c r="M80" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="O80" s="11">
+      <c r="P80" s="11">
         <v>5</v>
       </c>
-      <c r="P80" s="11">
+      <c r="Q80" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="7">
-        <f>ROW()-1</f>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
       <c r="B81" s="10" t="s">
@@ -6010,7 +6574,7 @@
       <c r="C81" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="D81" s="12">
+      <c r="D81" s="11">
         <f>TripDetails[[#This Row],[SetOrg]]</f>
         <v>12</v>
       </c>
@@ -6036,11 +6600,1480 @@
       <c r="M81" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="O81" s="11">
+      <c r="P81" s="11">
         <v>6</v>
       </c>
-      <c r="P81" s="11">
+      <c r="Q81" s="11">
         <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="A82" s="7">
+        <f>ROW()-1</f>
+        <v>81</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D82" s="11">
+        <v>13</v>
+      </c>
+      <c r="E82" s="11">
+        <v>1</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="I82" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="J82" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="M82" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="N82" s="11">
+        <v>1</v>
+      </c>
+      <c r="O82" s="7" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="A83" s="7">
+        <v>82</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D83" s="11">
+        <v>13</v>
+      </c>
+      <c r="E83" s="11">
+        <v>2</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="G83" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="H83" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="M83" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N83" s="11">
+        <v>1</v>
+      </c>
+      <c r="O83" s="7" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" ht="153" x14ac:dyDescent="0.2">
+      <c r="A84" s="7">
+        <f>ROW()-1</f>
+        <v>83</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D84" s="12">
+        <v>13</v>
+      </c>
+      <c r="E84" s="11">
+        <v>3</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="I84" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="M84" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N84" s="11">
+        <v>1</v>
+      </c>
+      <c r="O84" s="7" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" ht="68" x14ac:dyDescent="0.2">
+      <c r="A85" s="7">
+        <v>83</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D85" s="11">
+        <v>13</v>
+      </c>
+      <c r="E85" s="11">
+        <v>4</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="I85" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="J85" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="K85" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="M85" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N85" s="11">
+        <v>1</v>
+      </c>
+      <c r="O85" s="7" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" ht="119" x14ac:dyDescent="0.2">
+      <c r="A86" s="7">
+        <v>84</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D86" s="11">
+        <v>13</v>
+      </c>
+      <c r="E86" s="11">
+        <v>5</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="I86" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="J86" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="K86" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="L86" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="M86" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="N86" s="11">
+        <v>1</v>
+      </c>
+      <c r="O86" s="7" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="A87" s="7">
+        <v>84</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D87" s="11">
+        <v>13</v>
+      </c>
+      <c r="E87" s="11">
+        <v>6</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="I87" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="J87" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="M87" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N87" s="11">
+        <v>1</v>
+      </c>
+      <c r="O87" s="7" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A88" s="7">
+        <v>84</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D88" s="11">
+        <v>13</v>
+      </c>
+      <c r="E88" s="11">
+        <v>7</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="G88" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="H88" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="M88" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="N88" s="11">
+        <v>1</v>
+      </c>
+      <c r="O88" s="7" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" ht="68" x14ac:dyDescent="0.2">
+      <c r="A89" s="7">
+        <v>84</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D89" s="11">
+        <v>13</v>
+      </c>
+      <c r="E89" s="11">
+        <v>8</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="I89" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="J89" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="K89" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="M89" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N89" s="11">
+        <v>1</v>
+      </c>
+      <c r="O89" s="7" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D90" s="11">
+        <v>13</v>
+      </c>
+      <c r="E90" s="11">
+        <v>9</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="H90" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="I90" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J90" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K90" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="M90" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="N90" s="11">
+        <v>1</v>
+      </c>
+      <c r="O90" s="7" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" ht="68" x14ac:dyDescent="0.2">
+      <c r="A91" s="7">
+        <v>84</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D91" s="11">
+        <v>13</v>
+      </c>
+      <c r="E91" s="11">
+        <v>10</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="I91" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="J91" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="K91" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="M91" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N91" s="11">
+        <v>1</v>
+      </c>
+      <c r="O91" s="7" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="A92" s="7">
+        <v>84</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D92" s="11">
+        <v>13</v>
+      </c>
+      <c r="E92" s="11">
+        <v>11</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="H92" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="M92" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="N92" s="11">
+        <v>1</v>
+      </c>
+      <c r="O92" s="7" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="A93" s="7">
+        <v>84</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D93" s="11">
+        <v>13</v>
+      </c>
+      <c r="E93" s="11">
+        <v>12</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="H93" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="I93" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="J93" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="M93" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="N93" s="11">
+        <v>1</v>
+      </c>
+      <c r="O93" s="7" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" ht="119" x14ac:dyDescent="0.2">
+      <c r="A94" s="7">
+        <v>85</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D94" s="11">
+        <v>13</v>
+      </c>
+      <c r="E94" s="11">
+        <v>13</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="H94" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="I94" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="J94" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="M94" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N94" s="11">
+        <v>1</v>
+      </c>
+      <c r="O94" s="7" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="A95" s="7">
+        <v>85</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D95" s="12">
+        <v>13</v>
+      </c>
+      <c r="E95" s="11">
+        <v>14</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="G95" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="H95" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="M95" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N95" s="11">
+        <v>1</v>
+      </c>
+      <c r="O95" s="7" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" ht="136" x14ac:dyDescent="0.2">
+      <c r="A96" s="7">
+        <v>85</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D96" s="12">
+        <v>13</v>
+      </c>
+      <c r="E96" s="11">
+        <v>15</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="H96" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="I96" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="M96" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N96" s="11">
+        <v>1</v>
+      </c>
+      <c r="O96" s="7" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+      <c r="A97" s="7">
+        <f>ROW()-1</f>
+        <v>96</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D97" s="12">
+        <v>13</v>
+      </c>
+      <c r="E97" s="11">
+        <v>16</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="I97" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="M97" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N97" s="11">
+        <v>1</v>
+      </c>
+      <c r="O97" s="7" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+      <c r="A98" s="7">
+        <f>ROW()-1</f>
+        <v>97</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D98" s="12">
+        <v>13</v>
+      </c>
+      <c r="E98" s="11">
+        <v>17</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="H98" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="I98" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="J98" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="K98" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="M98" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="N98" s="11">
+        <v>1</v>
+      </c>
+      <c r="O98" s="7" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A99" s="7">
+        <f>ROW()-1</f>
+        <v>98</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D99" s="12">
+        <v>13</v>
+      </c>
+      <c r="E99" s="11">
+        <v>20</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="H99" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="I99" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="J99" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="M99" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N99" s="11">
+        <v>1</v>
+      </c>
+      <c r="O99" s="7" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" ht="102" x14ac:dyDescent="0.2">
+      <c r="A100" s="7">
+        <f>ROW()-1</f>
+        <v>99</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D100" s="12">
+        <v>14</v>
+      </c>
+      <c r="E100" s="11">
+        <v>21</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="I100" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="J100" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="M100" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N100" s="11">
+        <v>1</v>
+      </c>
+      <c r="O100" s="7" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" ht="85" x14ac:dyDescent="0.2">
+      <c r="A101" s="7">
+        <f>ROW()-1</f>
+        <v>100</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D101" s="12">
+        <v>14</v>
+      </c>
+      <c r="E101" s="11">
+        <v>22</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="H101" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="I101" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="M101" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N101" s="11">
+        <v>1</v>
+      </c>
+      <c r="O101" s="7" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" ht="85" x14ac:dyDescent="0.2">
+      <c r="A102" s="7">
+        <f>ROW()-1</f>
+        <v>101</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D102" s="12">
+        <v>14</v>
+      </c>
+      <c r="E102" s="11">
+        <v>23</v>
+      </c>
+      <c r="F102" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="H102" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="I102" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="J102" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="M102" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N102" s="11">
+        <v>1</v>
+      </c>
+      <c r="O102" s="7" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+      <c r="A103" s="7">
+        <f>ROW()-1</f>
+        <v>102</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D103" s="12">
+        <v>14</v>
+      </c>
+      <c r="E103" s="11">
+        <v>24</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="I103" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="M103" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="N103" s="11">
+        <v>2</v>
+      </c>
+      <c r="O103" s="7" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+      <c r="A104" s="7">
+        <f>ROW()-1</f>
+        <v>103</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D104" s="12">
+        <v>14</v>
+      </c>
+      <c r="E104" s="11">
+        <v>26</v>
+      </c>
+      <c r="F104" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="H104" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="I104" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="M104" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N104" s="11">
+        <v>2</v>
+      </c>
+      <c r="O104" s="7" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+      <c r="A105" s="7">
+        <f>ROW()-1</f>
+        <v>104</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D105" s="12">
+        <v>14</v>
+      </c>
+      <c r="E105" s="11">
+        <v>27</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="H105" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="I105" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="M105" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="N105" s="11">
+        <v>2</v>
+      </c>
+      <c r="O105" s="7" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A106" s="7">
+        <f>ROW()-1</f>
+        <v>105</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D106" s="12">
+        <v>14</v>
+      </c>
+      <c r="E106" s="11">
+        <v>28</v>
+      </c>
+      <c r="F106" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="H106" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="I106" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="M106" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N106" s="11">
+        <v>2</v>
+      </c>
+      <c r="O106" s="7" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+      <c r="A107" s="7">
+        <f>ROW()-1</f>
+        <v>106</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D107" s="12">
+        <v>14</v>
+      </c>
+      <c r="E107" s="11">
+        <v>30</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="H107" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="I107" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="J107" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="K107" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="M107" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N107" s="11">
+        <v>2</v>
+      </c>
+      <c r="O107" s="7" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+      <c r="A108" s="7">
+        <f>ROW()-1</f>
+        <v>107</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D108" s="12">
+        <v>14</v>
+      </c>
+      <c r="E108" s="11">
+        <v>31</v>
+      </c>
+      <c r="F108" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="H108" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="I108" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="J108" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="M108" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="N108" s="11">
+        <v>2</v>
+      </c>
+      <c r="O108" s="7" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" ht="102" x14ac:dyDescent="0.2">
+      <c r="A109" s="7">
+        <f>ROW()-1</f>
+        <v>108</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D109" s="12">
+        <v>14</v>
+      </c>
+      <c r="E109" s="11">
+        <v>32</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="H109" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="I109" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="J109" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="M109" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N109" s="11">
+        <v>2</v>
+      </c>
+      <c r="O109" s="7" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+      <c r="A110" s="7">
+        <f>ROW()-1</f>
+        <v>109</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D110" s="12">
+        <v>14</v>
+      </c>
+      <c r="E110" s="11">
+        <v>33</v>
+      </c>
+      <c r="F110" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="H110" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="I110" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="M110" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N110" s="11">
+        <v>2</v>
+      </c>
+      <c r="O110" s="7" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A111" s="7">
+        <f>ROW()-1</f>
+        <v>110</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D111" s="12">
+        <v>14</v>
+      </c>
+      <c r="E111" s="11">
+        <v>34</v>
+      </c>
+      <c r="F111" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="G111" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="H111" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="M111" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="N111" s="11">
+        <v>2</v>
+      </c>
+      <c r="O111" s="7" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+      <c r="A112" s="7">
+        <f>ROW()-1</f>
+        <v>111</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D112" s="12">
+        <v>14</v>
+      </c>
+      <c r="E112" s="11">
+        <v>35</v>
+      </c>
+      <c r="F112" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="H112" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="I112" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="J112" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="K112" s="7" t="s">
+        <v>677</v>
+      </c>
+      <c r="M112" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N112" s="11">
+        <v>2</v>
+      </c>
+      <c r="O112" s="7" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+      <c r="A113" s="7">
+        <f>ROW()-1</f>
+        <v>112</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D113" s="12">
+        <v>14</v>
+      </c>
+      <c r="E113" s="11">
+        <v>36</v>
+      </c>
+      <c r="F113" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="G113" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="H113" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="I113" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="J113" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="M113" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="N113" s="11">
+        <v>2</v>
+      </c>
+      <c r="O113" s="7" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" ht="85" x14ac:dyDescent="0.2">
+      <c r="A114" s="7">
+        <f>ROW()-1</f>
+        <v>113</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D114" s="12">
+        <v>14</v>
+      </c>
+      <c r="E114" s="11">
+        <v>37</v>
+      </c>
+      <c r="F114" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="G114" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="H114" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="I114" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="J114" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="M114" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N114" s="11">
+        <v>3</v>
+      </c>
+      <c r="O114" s="7" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" ht="85" x14ac:dyDescent="0.2">
+      <c r="A115" s="7">
+        <f>ROW()-1</f>
+        <v>114</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D115" s="12">
+        <v>14</v>
+      </c>
+      <c r="E115" s="11">
+        <v>38</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="H115" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="I115" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="J115" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="M115" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="N115" s="11">
+        <v>1</v>
+      </c>
+      <c r="O115" s="7" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+      <c r="A116" s="7">
+        <f>ROW()-1</f>
+        <v>115</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D116" s="12">
+        <v>14</v>
+      </c>
+      <c r="E116" s="11">
+        <v>39</v>
+      </c>
+      <c r="F116" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="G116" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="H116" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="I116" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="J116" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="M116" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="N116" s="11">
+        <v>2</v>
+      </c>
+      <c r="O116" s="7" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" ht="119" x14ac:dyDescent="0.2">
+      <c r="A117" s="7">
+        <f>ROW()-1</f>
+        <v>116</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D117" s="12">
+        <v>14</v>
+      </c>
+      <c r="E117" s="11">
+        <v>40</v>
+      </c>
+      <c r="F117" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="G117" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="H117" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="I117" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="J117" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="M117" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="N117" s="11">
+        <v>2</v>
+      </c>
+      <c r="O117" s="7" t="s">
+        <v>647</v>
       </c>
     </row>
   </sheetData>
@@ -6442,11 +8475,11 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <f ca="1">(RANDBETWEEN(LatMin, LatMax))/1000000</f>
-        <v>38.889938000000001</v>
+        <v>38.892215999999998</v>
       </c>
       <c r="B11" s="4">
         <f ca="1">(RANDBETWEEN(LongMax,LongMin))/1000000</f>
-        <v>-77.004504999999995</v>
+        <v>-77.019148999999999</v>
       </c>
     </row>
   </sheetData>
